--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -284,7 +284,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -638,6 +638,10 @@
   </si>
   <si>
     <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3144,13 +3148,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3201,7 +3205,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3219,7 +3223,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3230,7 +3234,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3256,10 +3260,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3298,17 +3302,17 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3337,10 +3341,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3362,13 +3366,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3419,7 +3423,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>136</v>
@@ -3448,11 +3452,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3474,10 +3478,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -3532,7 +3536,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3565,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3587,16 +3591,16 @@
         <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3645,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3663,18 +3667,18 @@
         <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3697,17 +3701,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3756,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3774,7 +3778,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3785,7 +3789,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3811,13 +3815,13 @@
         <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3867,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3882,7 +3886,7 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>188</v>
@@ -3891,12 +3895,12 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3919,13 +3923,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3976,7 +3980,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3994,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4005,7 +4009,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4034,7 +4038,7 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>134</v>
@@ -4075,19 +4079,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4105,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4116,10 +4120,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -4141,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4198,7 +4202,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4227,7 +4231,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4250,13 +4254,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4307,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4329,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4336,7 +4340,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4359,13 +4363,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4416,7 +4420,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4434,7 +4438,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4445,7 +4449,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4471,10 +4475,10 @@
         <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4525,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4543,7 +4547,7 @@
         <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4554,7 +4558,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4577,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4634,7 +4638,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4656,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4663,7 +4667,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4692,7 +4696,7 @@
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>134</v>
@@ -4745,7 +4749,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4763,7 +4767,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4774,11 +4778,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4800,10 +4804,10 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -4858,7 +4862,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4887,7 +4891,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4910,16 +4914,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4969,7 +4973,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4993,12 +4997,12 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5021,13 +5025,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5078,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5096,13 +5100,13 @@
         <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
